--- a/Shading Trees/Shock/Shading_trees.xlsx
+++ b/Shading Trees/Shock/Shading_trees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\New Cases\Shading Trees\Shock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Shading Trees\Shock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D0DD88-51D1-454D-AFCA-E8175AE97BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086DC514-4272-4341-97BE-FCDF328FC9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1167,6 +1167,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1554,7 +1557,7 @@
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-335.45639999999997</v>
+        <v>-4.9350649350647348E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,7 +1615,7 @@
       </c>
       <c r="C2" s="50">
         <f>main!C29</f>
-        <v>6797.4060000000009</v>
+        <v>0.99999999999995948</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1706,7 +1709,7 @@
       </c>
       <c r="G2" s="50">
         <f>-main!C30</f>
-        <v>0.02</v>
+        <v>2.9422988710692267E-6</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>204</v>
@@ -1733,7 +1736,7 @@
       </c>
       <c r="G3" s="54">
         <f>main!C34</f>
-        <v>-0.44520605187319889</v>
+        <v>-6.5496463190985022E-5</v>
       </c>
       <c r="H3" s="54" t="s">
         <v>204</v>
@@ -1829,7 +1832,7 @@
       </c>
       <c r="F2" s="54">
         <f>main!C32</f>
-        <v>-2.2539412375740076E-2</v>
+        <v>-3.3158843793851892E-6</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>205</v>
@@ -1853,7 +1856,7 @@
       </c>
       <c r="F3" s="54">
         <f>main!C33</f>
-        <v>3.1722135936226768E-2</v>
+        <v>4.6668002376532283E-6</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>204</v>
@@ -2630,10 +2633,10 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2686,7 +2689,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2707,7 +2710,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="11" t="s">
         <v>247</v>
       </c>
@@ -2726,7 +2729,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="9" t="s">
         <v>183</v>
       </c>
@@ -2747,7 +2750,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="9" t="s">
         <v>216</v>
       </c>
@@ -2768,7 +2771,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>217</v>
       </c>
@@ -2795,7 +2798,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="9" t="s">
         <v>188</v>
       </c>
@@ -2817,7 +2820,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="9" t="s">
         <v>241</v>
       </c>
@@ -2849,7 +2852,7 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="9" t="s">
         <v>240</v>
       </c>
@@ -2871,7 +2874,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="9" t="s">
         <v>243</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="9" t="s">
         <v>193</v>
       </c>
@@ -2909,7 +2912,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="9" t="s">
         <v>194</v>
       </c>
@@ -2926,7 +2929,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="11" t="s">
         <v>182</v>
       </c>
@@ -2945,7 +2948,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="11" t="s">
         <v>200</v>
       </c>
@@ -3017,14 +3020,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="57" t="s">
         <v>184</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="18">
-        <v>1</v>
+      <c r="C18" s="56">
+        <v>1.4711494355346133E-4</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="44"/>
@@ -3036,7 +3039,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="12" t="s">
         <v>189</v>
       </c>
@@ -3057,7 +3060,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="12" t="s">
         <v>195</v>
       </c>
@@ -3079,7 +3082,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="12" t="s">
         <v>196</v>
       </c>
@@ -3162,13 +3165,13 @@
       <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="13" t="s">
         <v>252</v>
       </c>
       <c r="C25" s="21">
         <f>C16*C18</f>
-        <v>-0.02</v>
+        <v>-2.9422988710692267E-6</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="46"/>
@@ -3184,13 +3187,13 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="13" t="s">
         <v>201</v>
       </c>
       <c r="C26" s="25">
         <f>C14*C20*C18</f>
-        <v>-3.3391722038133433E-2</v>
+        <v>-4.9124213027928704E-6</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="46"/>
@@ -3204,13 +3207,13 @@
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="25">
         <f>C21*C14*C18</f>
-        <v>-3.3391722038133433E-2</v>
+        <v>-4.9124213027928704E-6</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="46"/>
@@ -3230,7 +3233,7 @@
       </c>
       <c r="C28" s="25">
         <f>C22*C14*C18</f>
-        <v>-3.3391722038133446E-2</v>
+        <v>-4.912421302792873E-6</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="46"/>
@@ -3242,7 +3245,7 @@
       <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="60" t="s">
         <v>224</v>
       </c>
       <c r="B29" s="28" t="s">
@@ -3250,7 +3253,7 @@
       </c>
       <c r="C29" s="29">
         <f>C23*C18</f>
-        <v>6797.4060000000009</v>
+        <v>0.99999999999995948</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>190</v>
@@ -3266,13 +3269,13 @@
       <c r="K29" s="28"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="28" t="s">
         <v>252</v>
       </c>
       <c r="C30" s="30">
         <f>C25</f>
-        <v>-0.02</v>
+        <v>-2.9422988710692267E-6</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="47"/>
@@ -3288,7 +3291,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="28" t="s">
         <v>225</v>
       </c>
@@ -3309,13 +3312,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="28" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="31">
         <f>-0.27*C14*C18</f>
-        <v>-2.2539412375740076E-2</v>
+        <v>-3.3158843793851892E-6</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="47"/>
@@ -3336,7 +3339,7 @@
       </c>
       <c r="C33" s="32">
         <f>0.38*C14*C18</f>
-        <v>3.1722135936226768E-2</v>
+        <v>4.6668002376532283E-6</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="47"/>
@@ -3357,7 +3360,7 @@
       </c>
       <c r="C34" s="32">
         <f>-C24*C18/C10</f>
-        <v>-0.44520605187319889</v>
+        <v>-6.5496463190985022E-5</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="47"/>
@@ -3378,7 +3381,7 @@
       </c>
       <c r="C35" s="32">
         <f>-C17*C18*C5/1000</f>
-        <v>-335.45639999999997</v>
+        <v>-4.9350649350647348E-2</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="47"/>

--- a/Shading Trees/Shock/Shading_trees.xlsx
+++ b/Shading Trees/Shock/Shading_trees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Shading Trees\Shock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Shading Trees\Shock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086DC514-4272-4341-97BE-FCDF328FC9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB4AF5-D382-4FE2-B60C-103967E671D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="268">
   <si>
     <t>level_row</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>Residential</t>
+  </si>
+  <si>
+    <t>numbeo</t>
   </si>
 </sst>
 </file>
@@ -864,8 +867,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0;\-;\-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0;\-;\-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1032,7 +1035,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1085,7 +1088,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1736,7 +1739,7 @@
       </c>
       <c r="G3" s="54">
         <f>main!C34</f>
-        <v>-6.5496463190985022E-5</v>
+        <v>-9.6685255186692185E-5</v>
       </c>
       <c r="H3" s="54" t="s">
         <v>204</v>
@@ -2633,10 +2636,10 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2825,7 +2828,7 @@
         <v>241</v>
       </c>
       <c r="C8" s="19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>244</v>
@@ -2857,7 +2860,8 @@
         <v>240</v>
       </c>
       <c r="C9" s="19">
-        <v>7</v>
+        <f>162-7</f>
+        <v>155</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>245</v>
@@ -2869,7 +2873,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="10"/>
       <c r="K9" s="24" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="L9" s="23"/>
     </row>
@@ -3149,7 +3153,7 @@
       </c>
       <c r="C24" s="14">
         <f>C9*C8*C6*C5*C3/1000000</f>
-        <v>4634.5950000000003</v>
+        <v>6841.5450000000001</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>190</v>
@@ -3360,7 +3364,7 @@
       </c>
       <c r="C34" s="32">
         <f>-C24*C18/C10</f>
-        <v>-6.5496463190985022E-5</v>
+        <v>-9.6685255186692185E-5</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="47"/>
@@ -3410,9 +3414,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="K9" r:id="rId2" xr:uid="{AD77FBCA-DB57-49E0-B1C8-34C2897E5A3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Shading Trees/Shock/Shading_trees.xlsx
+++ b/Shading Trees/Shock/Shading_trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Shading Trees\Shock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB4AF5-D382-4FE2-B60C-103967E671D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06487B3-E949-4549-882B-B396D39BBAEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
   <si>
     <t>level_row</t>
   </si>
@@ -857,9 +857,6 @@
   </si>
   <si>
     <t>Residential</t>
-  </si>
-  <si>
-    <t>numbeo</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1736,7 @@
       </c>
       <c r="G3" s="54">
         <f>main!C34</f>
-        <v>-9.6685255186692185E-5</v>
+        <v>-6.5496463190985022E-5</v>
       </c>
       <c r="H3" s="54" t="s">
         <v>204</v>
@@ -2639,7 +2636,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2828,7 +2825,7 @@
         <v>241</v>
       </c>
       <c r="C8" s="19">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>244</v>
@@ -2860,8 +2857,7 @@
         <v>240</v>
       </c>
       <c r="C9" s="19">
-        <f>162-7</f>
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>245</v>
@@ -2873,7 +2869,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="10"/>
       <c r="K9" s="24" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="L9" s="23"/>
     </row>
@@ -3153,7 +3149,7 @@
       </c>
       <c r="C24" s="14">
         <f>C9*C8*C6*C5*C3/1000000</f>
-        <v>6841.5450000000001</v>
+        <v>4634.5950000000003</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>190</v>
@@ -3364,7 +3360,7 @@
       </c>
       <c r="C34" s="32">
         <f>-C24*C18/C10</f>
-        <v>-9.6685255186692185E-5</v>
+        <v>-6.5496463190985022E-5</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="47"/>
@@ -3414,10 +3410,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="K9" r:id="rId2" xr:uid="{AD77FBCA-DB57-49E0-B1C8-34C2897E5A3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>